--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.07223796621138</v>
+        <v>8.267595333333334</v>
       </c>
       <c r="H2">
-        <v>5.07223796621138</v>
+        <v>24.802786</v>
       </c>
       <c r="I2">
-        <v>0.2625631356688483</v>
+        <v>0.3656664502891759</v>
       </c>
       <c r="J2">
-        <v>0.2625631356688483</v>
+        <v>0.3656664502891758</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0675186340794275</v>
+        <v>0.07184333333333333</v>
       </c>
       <c r="N2">
-        <v>0.0675186340794275</v>
+        <v>0.21553</v>
       </c>
       <c r="O2">
-        <v>0.03959230520336181</v>
+        <v>0.04065095086408497</v>
       </c>
       <c r="P2">
-        <v>0.03959230520336181</v>
+        <v>0.04065095086408497</v>
       </c>
       <c r="Q2">
-        <v>0.3424705792044057</v>
+        <v>0.5939716073977778</v>
       </c>
       <c r="R2">
-        <v>0.3424705792044057</v>
+        <v>5.34574446658</v>
       </c>
       <c r="S2">
-        <v>0.01039547980255274</v>
+        <v>0.01486468890334966</v>
       </c>
       <c r="T2">
-        <v>0.01039547980255274</v>
+        <v>0.01486468890334965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.07223796621138</v>
+        <v>8.267595333333334</v>
       </c>
       <c r="H3">
-        <v>5.07223796621138</v>
+        <v>24.802786</v>
       </c>
       <c r="I3">
-        <v>0.2625631356688483</v>
+        <v>0.3656664502891759</v>
       </c>
       <c r="J3">
-        <v>0.2625631356688483</v>
+        <v>0.3656664502891758</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.27103497054356</v>
+        <v>1.315200666666667</v>
       </c>
       <c r="N3">
-        <v>1.27103497054356</v>
+        <v>3.945602</v>
       </c>
       <c r="O3">
-        <v>0.7453232009804502</v>
+        <v>0.7441770195853729</v>
       </c>
       <c r="P3">
-        <v>0.7453232009804502</v>
+        <v>0.7441770195853727</v>
       </c>
       <c r="Q3">
-        <v>6.446991833973407</v>
+        <v>10.87354689413022</v>
       </c>
       <c r="R3">
-        <v>6.446991833973407</v>
+        <v>97.861922047172</v>
       </c>
       <c r="S3">
-        <v>0.1956943967361702</v>
+        <v>0.2721205691385618</v>
       </c>
       <c r="T3">
-        <v>0.1956943967361702</v>
+        <v>0.2721205691385618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.07223796621138</v>
+        <v>8.267595333333334</v>
       </c>
       <c r="H4">
-        <v>5.07223796621138</v>
+        <v>24.802786</v>
       </c>
       <c r="I4">
-        <v>0.2625631356688483</v>
+        <v>0.3656664502891759</v>
       </c>
       <c r="J4">
-        <v>0.2625631356688483</v>
+        <v>0.3656664502891758</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.366793778729029</v>
+        <v>0.3802783333333333</v>
       </c>
       <c r="N4">
-        <v>0.366793778729029</v>
+        <v>1.140835</v>
       </c>
       <c r="O4">
-        <v>0.2150844938161879</v>
+        <v>0.2151720295505423</v>
       </c>
       <c r="P4">
-        <v>0.2150844938161879</v>
+        <v>0.2151720295505423</v>
       </c>
       <c r="Q4">
-        <v>1.860465330239517</v>
+        <v>3.143987374034445</v>
       </c>
       <c r="R4">
-        <v>1.860465330239517</v>
+        <v>28.29588636631</v>
       </c>
       <c r="S4">
-        <v>0.0564732591301253</v>
+        <v>0.07868119224726446</v>
       </c>
       <c r="T4">
-        <v>0.0564732591301253</v>
+        <v>0.07868119224726444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.0715958149159</v>
+        <v>11.10830433333333</v>
       </c>
       <c r="H5">
-        <v>11.0715958149159</v>
+        <v>33.324913</v>
       </c>
       <c r="I5">
-        <v>0.5731184012633666</v>
+        <v>0.491307816908375</v>
       </c>
       <c r="J5">
-        <v>0.5731184012633666</v>
+        <v>0.491307816908375</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0675186340794275</v>
+        <v>0.07184333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0675186340794275</v>
+        <v>0.21553</v>
       </c>
       <c r="O5">
-        <v>0.03959230520336181</v>
+        <v>0.04065095086408497</v>
       </c>
       <c r="P5">
-        <v>0.03959230520336181</v>
+        <v>0.04065095086408497</v>
       </c>
       <c r="Q5">
-        <v>0.7475390265026276</v>
+        <v>0.7980576109877776</v>
       </c>
       <c r="R5">
-        <v>0.7475390265026276</v>
+        <v>7.182518498889999</v>
       </c>
       <c r="S5">
-        <v>0.02269107866048199</v>
+        <v>0.01997212992428321</v>
       </c>
       <c r="T5">
-        <v>0.02269107866048199</v>
+        <v>0.01997212992428321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.0715958149159</v>
+        <v>11.10830433333333</v>
       </c>
       <c r="H6">
-        <v>11.0715958149159</v>
+        <v>33.324913</v>
       </c>
       <c r="I6">
-        <v>0.5731184012633666</v>
+        <v>0.491307816908375</v>
       </c>
       <c r="J6">
-        <v>0.5731184012633666</v>
+        <v>0.491307816908375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.27103497054356</v>
+        <v>1.315200666666667</v>
       </c>
       <c r="N6">
-        <v>1.27103497054356</v>
+        <v>3.945602</v>
       </c>
       <c r="O6">
-        <v>0.7453232009804502</v>
+        <v>0.7441770195853729</v>
       </c>
       <c r="P6">
-        <v>0.7453232009804502</v>
+        <v>0.7441770195853727</v>
       </c>
       <c r="Q6">
-        <v>14.07238546048183</v>
+        <v>14.60964926473622</v>
       </c>
       <c r="R6">
-        <v>14.07238546048183</v>
+        <v>131.486843382626</v>
       </c>
       <c r="S6">
-        <v>0.4271584413704105</v>
+        <v>0.3656199868858706</v>
       </c>
       <c r="T6">
-        <v>0.4271584413704105</v>
+        <v>0.3656199868858705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.0715958149159</v>
+        <v>11.10830433333333</v>
       </c>
       <c r="H7">
-        <v>11.0715958149159</v>
+        <v>33.324913</v>
       </c>
       <c r="I7">
-        <v>0.5731184012633666</v>
+        <v>0.491307816908375</v>
       </c>
       <c r="J7">
-        <v>0.5731184012633666</v>
+        <v>0.491307816908375</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.366793778729029</v>
+        <v>0.3802783333333333</v>
       </c>
       <c r="N7">
-        <v>0.366793778729029</v>
+        <v>1.140835</v>
       </c>
       <c r="O7">
-        <v>0.2150844938161879</v>
+        <v>0.2151720295505423</v>
       </c>
       <c r="P7">
-        <v>0.2150844938161879</v>
+        <v>0.2151720295505423</v>
       </c>
       <c r="Q7">
-        <v>4.060992465513507</v>
+        <v>4.224247458039444</v>
       </c>
       <c r="R7">
-        <v>4.060992465513507</v>
+        <v>38.01822712235499</v>
       </c>
       <c r="S7">
-        <v>0.1232688812324741</v>
+        <v>0.1057157000982213</v>
       </c>
       <c r="T7">
-        <v>0.1232688812324741</v>
+        <v>0.1057157000982213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.17433117485734</v>
+        <v>3.233763666666666</v>
       </c>
       <c r="H8">
-        <v>3.17433117485734</v>
+        <v>9.701290999999999</v>
       </c>
       <c r="I8">
-        <v>0.1643184630677851</v>
+        <v>0.1430257328024492</v>
       </c>
       <c r="J8">
-        <v>0.1643184630677851</v>
+        <v>0.1430257328024492</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0675186340794275</v>
+        <v>0.07184333333333333</v>
       </c>
       <c r="N8">
-        <v>0.0675186340794275</v>
+        <v>0.21553</v>
       </c>
       <c r="O8">
-        <v>0.03959230520336181</v>
+        <v>0.04065095086408497</v>
       </c>
       <c r="P8">
-        <v>0.03959230520336181</v>
+        <v>0.04065095086408497</v>
       </c>
       <c r="Q8">
-        <v>0.214326505042112</v>
+        <v>0.2323243610255555</v>
       </c>
       <c r="R8">
-        <v>0.214326505042112</v>
+        <v>2.09091924923</v>
       </c>
       <c r="S8">
-        <v>0.006505746740327086</v>
+        <v>0.005814132036452109</v>
       </c>
       <c r="T8">
-        <v>0.006505746740327086</v>
+        <v>0.005814132036452109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.17433117485734</v>
+        <v>3.233763666666666</v>
       </c>
       <c r="H9">
-        <v>3.17433117485734</v>
+        <v>9.701290999999999</v>
       </c>
       <c r="I9">
-        <v>0.1643184630677851</v>
+        <v>0.1430257328024492</v>
       </c>
       <c r="J9">
-        <v>0.1643184630677851</v>
+        <v>0.1430257328024492</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.27103497054356</v>
+        <v>1.315200666666667</v>
       </c>
       <c r="N9">
-        <v>1.27103497054356</v>
+        <v>3.945602</v>
       </c>
       <c r="O9">
-        <v>0.7453232009804502</v>
+        <v>0.7441770195853729</v>
       </c>
       <c r="P9">
-        <v>0.7453232009804502</v>
+        <v>0.7441770195853727</v>
       </c>
       <c r="Q9">
-        <v>4.034685931330303</v>
+        <v>4.253048130242444</v>
       </c>
       <c r="R9">
-        <v>4.034685931330303</v>
+        <v>38.277433172182</v>
       </c>
       <c r="S9">
-        <v>0.1224703628738695</v>
+        <v>0.1064364635609406</v>
       </c>
       <c r="T9">
-        <v>0.1224703628738695</v>
+        <v>0.1064364635609406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.17433117485734</v>
+        <v>3.233763666666666</v>
       </c>
       <c r="H10">
-        <v>3.17433117485734</v>
+        <v>9.701290999999999</v>
       </c>
       <c r="I10">
-        <v>0.1643184630677851</v>
+        <v>0.1430257328024492</v>
       </c>
       <c r="J10">
-        <v>0.1643184630677851</v>
+        <v>0.1430257328024492</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.366793778729029</v>
+        <v>0.3802783333333333</v>
       </c>
       <c r="N10">
-        <v>0.366793778729029</v>
+        <v>1.140835</v>
       </c>
       <c r="O10">
-        <v>0.2150844938161879</v>
+        <v>0.2151720295505423</v>
       </c>
       <c r="P10">
-        <v>0.2150844938161879</v>
+        <v>0.2151720295505423</v>
       </c>
       <c r="Q10">
-        <v>1.164324926563282</v>
+        <v>1.229730257553889</v>
       </c>
       <c r="R10">
-        <v>1.164324926563282</v>
+        <v>11.067572317985</v>
       </c>
       <c r="S10">
-        <v>0.03534235345358853</v>
+        <v>0.03077513720505657</v>
       </c>
       <c r="T10">
-        <v>0.03534235345358853</v>
+        <v>0.03077513720505657</v>
       </c>
     </row>
   </sheetData>
